--- a/Code/Results/Cases/Case_0_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_253/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1078908465351276</v>
+        <v>0.04217225448167028</v>
       </c>
       <c r="D2">
-        <v>1.378810641251079</v>
+        <v>0.6254007317907622</v>
       </c>
       <c r="E2">
-        <v>0.06146681652707997</v>
+        <v>0.07971969209716079</v>
       </c>
       <c r="F2">
-        <v>18.26355389268099</v>
+        <v>7.67766579295477</v>
       </c>
       <c r="G2">
-        <v>0.0005633274906622354</v>
+        <v>0.002619586479155167</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.14992382578606</v>
+        <v>6.702089430277567</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3770221293344065</v>
+        <v>0.2309916117001336</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08697943616566306</v>
+        <v>0.03922197126684068</v>
       </c>
       <c r="D3">
-        <v>1.095560842055846</v>
+        <v>0.5997560311011512</v>
       </c>
       <c r="E3">
-        <v>0.0520440900637773</v>
+        <v>0.07954608488602943</v>
       </c>
       <c r="F3">
-        <v>14.55213357058324</v>
+        <v>7.312664915336995</v>
       </c>
       <c r="G3">
-        <v>0.0006170054730586899</v>
+        <v>0.002637845245989812</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.08385513402044</v>
+        <v>6.407586212502139</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3036985153308365</v>
+        <v>0.2251548882320122</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07641344105802261</v>
+        <v>0.03740463833784702</v>
       </c>
       <c r="D4">
-        <v>0.9548586414886984</v>
+        <v>0.584639479713104</v>
       </c>
       <c r="E4">
-        <v>0.04744780060522302</v>
+        <v>0.07949401871503703</v>
       </c>
       <c r="F4">
-        <v>12.68993230770855</v>
+        <v>7.096297246036329</v>
       </c>
       <c r="G4">
-        <v>0.0006461457949360427</v>
+        <v>0.002649561795740255</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.5474737224072</v>
+        <v>6.233440295295793</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2672292861379475</v>
+        <v>0.2217824092075489</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07244578812976954</v>
+        <v>0.03666219987602659</v>
       </c>
       <c r="D5">
-        <v>0.9025462032005009</v>
+        <v>0.5786322765800378</v>
       </c>
       <c r="E5">
-        <v>0.04575912579665697</v>
+        <v>0.07948633921431458</v>
       </c>
       <c r="F5">
-        <v>11.99445277510705</v>
+        <v>7.010003513989318</v>
       </c>
       <c r="G5">
-        <v>0.0006574995020081996</v>
+        <v>0.002654464635297725</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.974057912825856</v>
+        <v>6.164096758339838</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2536724432644064</v>
+        <v>0.2204598454046476</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07180322958052443</v>
+        <v>0.03653879501806756</v>
       </c>
       <c r="D6">
-        <v>0.8941039926813232</v>
+        <v>0.5776438682993899</v>
       </c>
       <c r="E6">
-        <v>0.04548780209116643</v>
+        <v>0.07948587676149543</v>
       </c>
       <c r="F6">
-        <v>11.88205627556687</v>
+        <v>6.995785942668817</v>
       </c>
       <c r="G6">
-        <v>0.0006593611485370435</v>
+        <v>0.002655286526139592</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.881408629594603</v>
+        <v>6.15267866553549</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2514850143062972</v>
+        <v>0.2202433208500878</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07635876258034102</v>
+        <v>0.03739463359233497</v>
       </c>
       <c r="D7">
-        <v>0.9541356394514935</v>
+        <v>0.5845578522429378</v>
       </c>
       <c r="E7">
-        <v>0.04742437878383399</v>
+        <v>0.07949386055603647</v>
       </c>
       <c r="F7">
-        <v>12.68033176645372</v>
+        <v>7.095125945105792</v>
       </c>
       <c r="G7">
-        <v>0.0006463006480957496</v>
+        <v>0.002649627396396769</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.539556715705</v>
+        <v>6.232498609579125</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2670418976137228</v>
+        <v>0.22176436490588</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09999837750319784</v>
+        <v>0.0411559705254092</v>
       </c>
       <c r="D8">
-        <v>1.271262852786975</v>
+        <v>0.6164245101484482</v>
       </c>
       <c r="E8">
-        <v>0.05786834921515904</v>
+        <v>0.07964840728961775</v>
       </c>
       <c r="F8">
-        <v>16.86032780436312</v>
+        <v>7.55016332966801</v>
       </c>
       <c r="G8">
-        <v>0.0005830213801665263</v>
+        <v>0.002625777846402963</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.99009341110639</v>
+        <v>6.599122840620254</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3492073244335643</v>
+        <v>0.2289344036841214</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09999837750319784</v>
+        <v>0.04850408655065053</v>
       </c>
       <c r="D9">
-        <v>1.271262852786975</v>
+        <v>0.6841645191993848</v>
       </c>
       <c r="E9">
-        <v>0.05786834921515904</v>
+        <v>0.08039250942737297</v>
       </c>
       <c r="F9">
-        <v>16.86032780436312</v>
+        <v>8.507258773144088</v>
       </c>
       <c r="G9">
-        <v>0.0005830213801665263</v>
+        <v>0.002582968601257977</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.99009341110639</v>
+        <v>7.373821485815768</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3492073244335643</v>
+        <v>0.244737444301208</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09999837750319784</v>
+        <v>0.05391293723054957</v>
       </c>
       <c r="D10">
-        <v>1.271262852786975</v>
+        <v>0.7375099410671737</v>
       </c>
       <c r="E10">
-        <v>0.05786834921515904</v>
+        <v>0.08122049725153246</v>
       </c>
       <c r="F10">
-        <v>16.86032780436312</v>
+        <v>9.254813788462059</v>
       </c>
       <c r="G10">
-        <v>0.0005830213801665263</v>
+        <v>0.002553855825611224</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.99009341110639</v>
+        <v>7.981023838710541</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3492073244335643</v>
+        <v>0.2575078008063656</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09999837750319784</v>
+        <v>0.05638207931409056</v>
       </c>
       <c r="D11">
-        <v>1.271262852786975</v>
+        <v>0.7626428374326224</v>
       </c>
       <c r="E11">
-        <v>0.05786834921515904</v>
+        <v>0.0816611850510327</v>
       </c>
       <c r="F11">
-        <v>16.86032780436312</v>
+        <v>9.605674321016181</v>
       </c>
       <c r="G11">
-        <v>0.0005830213801665263</v>
+        <v>0.002541102731789278</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.99009341110639</v>
+        <v>8.266458780448204</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3492073244335643</v>
+        <v>0.2635920434577343</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09999837750319784</v>
+        <v>0.05731886261362718</v>
       </c>
       <c r="D12">
-        <v>1.271262852786975</v>
+        <v>0.772292150533417</v>
       </c>
       <c r="E12">
-        <v>0.05786834921515904</v>
+        <v>0.08183752697452107</v>
       </c>
       <c r="F12">
-        <v>16.86032780436312</v>
+        <v>9.740187184479396</v>
       </c>
       <c r="G12">
-        <v>0.0005830213801665263</v>
+        <v>0.002536342583986113</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.99009341110639</v>
+        <v>8.375952612406877</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3492073244335643</v>
+        <v>0.2659375074850487</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09999837750319784</v>
+        <v>0.05711702194680868</v>
       </c>
       <c r="D13">
-        <v>1.271262852786975</v>
+        <v>0.7702080016613877</v>
       </c>
       <c r="E13">
-        <v>0.05786834921515904</v>
+        <v>0.08179912348012053</v>
       </c>
       <c r="F13">
-        <v>16.86032780436312</v>
+        <v>9.711142455711638</v>
       </c>
       <c r="G13">
-        <v>0.0005830213801665263</v>
+        <v>0.002537364712521625</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.99009341110639</v>
+        <v>8.35230729949069</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3492073244335643</v>
+        <v>0.2654304920336159</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09999837750319784</v>
+        <v>0.05645911036125995</v>
       </c>
       <c r="D14">
-        <v>1.271262852786975</v>
+        <v>0.7634340014603822</v>
       </c>
       <c r="E14">
-        <v>0.05786834921515904</v>
+        <v>0.08167550163496173</v>
       </c>
       <c r="F14">
-        <v>16.86032780436312</v>
+        <v>9.616707137113508</v>
       </c>
       <c r="G14">
-        <v>0.0005830213801665263</v>
+        <v>0.002540709732774094</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.99009341110639</v>
+        <v>8.275438251062553</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3492073244335643</v>
+        <v>0.2637841629912145</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09999837750319784</v>
+        <v>0.05605636765984912</v>
       </c>
       <c r="D15">
-        <v>1.271262852786975</v>
+        <v>0.7593021559006843</v>
       </c>
       <c r="E15">
-        <v>0.05786834921515904</v>
+        <v>0.08160101989789581</v>
       </c>
       <c r="F15">
-        <v>16.86032780436312</v>
+        <v>9.559080589523489</v>
       </c>
       <c r="G15">
-        <v>0.0005830213801665263</v>
+        <v>0.002542767622052709</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.99009341110639</v>
+        <v>8.228539289177945</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3492073244335643</v>
+        <v>0.2627812025925209</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09999837750319784</v>
+        <v>0.05375179145433151</v>
       </c>
       <c r="D16">
-        <v>1.271262852786975</v>
+        <v>0.7358855031885128</v>
       </c>
       <c r="E16">
-        <v>0.05786834921515904</v>
+        <v>0.08119300721992317</v>
       </c>
       <c r="F16">
-        <v>16.86032780436312</v>
+        <v>9.232109634592632</v>
       </c>
       <c r="G16">
-        <v>0.0005830213801665263</v>
+        <v>0.002554699024685285</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.99009341110639</v>
+        <v>7.962562223481711</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3492073244335643</v>
+        <v>0.2571158785247718</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09999837750319784</v>
+        <v>0.05234058832979827</v>
       </c>
       <c r="D17">
-        <v>1.271262852786975</v>
+        <v>0.7217471205208881</v>
       </c>
       <c r="E17">
-        <v>0.05786834921515904</v>
+        <v>0.08095928151066545</v>
       </c>
       <c r="F17">
-        <v>16.86032780436312</v>
+        <v>9.034355760268795</v>
       </c>
       <c r="G17">
-        <v>0.0005830213801665263</v>
+        <v>0.002562143222850413</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.99009341110639</v>
+        <v>7.801810180466532</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3492073244335643</v>
+        <v>0.2537121625092311</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09999837750319784</v>
+        <v>0.05152968032246008</v>
       </c>
       <c r="D18">
-        <v>1.271262852786975</v>
+        <v>0.7136961140038238</v>
       </c>
       <c r="E18">
-        <v>0.05786834921515904</v>
+        <v>0.08083085946050517</v>
       </c>
       <c r="F18">
-        <v>16.86032780436312</v>
+        <v>8.921622795282815</v>
       </c>
       <c r="G18">
-        <v>0.0005830213801665263</v>
+        <v>0.002566471176759677</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.99009341110639</v>
+        <v>7.710212177574363</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3492073244335643</v>
+        <v>0.2517801903933616</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09999837750319784</v>
+        <v>0.05125523879461014</v>
       </c>
       <c r="D19">
-        <v>1.271262852786975</v>
+        <v>0.7109838738057022</v>
       </c>
       <c r="E19">
-        <v>0.05786834921515904</v>
+        <v>0.08078840279664234</v>
       </c>
       <c r="F19">
-        <v>16.86032780436312</v>
+        <v>8.883623910112476</v>
       </c>
       <c r="G19">
-        <v>0.0005830213801665263</v>
+        <v>0.00256794453114891</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.99009341110639</v>
+        <v>7.679344388810819</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3492073244335643</v>
+        <v>0.2511304235253959</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09999837750319784</v>
+        <v>0.05249072895466611</v>
       </c>
       <c r="D20">
-        <v>1.271262852786975</v>
+        <v>0.7232437373293976</v>
       </c>
       <c r="E20">
-        <v>0.05786834921515904</v>
+        <v>0.08098353811776704</v>
       </c>
       <c r="F20">
-        <v>16.86032780436312</v>
+        <v>9.055301795545347</v>
       </c>
       <c r="G20">
-        <v>0.0005830213801665263</v>
+        <v>0.002561345998619842</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.99009341110639</v>
+        <v>7.818832693362594</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3492073244335643</v>
+        <v>0.2540718144955036</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09999837750319784</v>
+        <v>0.05665230244720476</v>
       </c>
       <c r="D21">
-        <v>1.271262852786975</v>
+        <v>0.7654200440828163</v>
       </c>
       <c r="E21">
-        <v>0.05786834921515904</v>
+        <v>0.0817115534302566</v>
       </c>
       <c r="F21">
-        <v>16.86032780436312</v>
+        <v>9.644399505822776</v>
       </c>
       <c r="G21">
-        <v>0.0005830213801665263</v>
+        <v>0.002539725353292699</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.99009341110639</v>
+        <v>8.297977735093468</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3492073244335643</v>
+        <v>0.2642665874597583</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09999837750319784</v>
+        <v>0.05938273211293676</v>
       </c>
       <c r="D22">
-        <v>1.271262852786975</v>
+        <v>0.7937580853726445</v>
       </c>
       <c r="E22">
-        <v>0.05786834921515904</v>
+        <v>0.0822426413287296</v>
       </c>
       <c r="F22">
-        <v>16.86032780436312</v>
+        <v>10.03907326760577</v>
       </c>
       <c r="G22">
-        <v>0.0005830213801665263</v>
+        <v>0.002525997533138059</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.99009341110639</v>
+        <v>8.619361651941745</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3492073244335643</v>
+        <v>0.2711723072249299</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09999837750319784</v>
+        <v>0.05792429713754643</v>
       </c>
       <c r="D23">
-        <v>1.271262852786975</v>
+        <v>0.778560172045843</v>
       </c>
       <c r="E23">
-        <v>0.05786834921515904</v>
+        <v>0.08195404232722936</v>
       </c>
       <c r="F23">
-        <v>16.86032780436312</v>
+        <v>9.827510510781678</v>
       </c>
       <c r="G23">
-        <v>0.0005830213801665263</v>
+        <v>0.002533287959481602</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.99009341110639</v>
+        <v>8.447051655679559</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3492073244335643</v>
+        <v>0.26746369757916</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09999837750319784</v>
+        <v>0.05242284913688877</v>
       </c>
       <c r="D24">
-        <v>1.271262852786975</v>
+        <v>0.7225668765433397</v>
       </c>
       <c r="E24">
-        <v>0.05786834921515904</v>
+        <v>0.08097255319206553</v>
       </c>
       <c r="F24">
-        <v>16.86032780436312</v>
+        <v>9.045829115186393</v>
       </c>
       <c r="G24">
-        <v>0.0005830213801665263</v>
+        <v>0.00256170627373099</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.99009341110639</v>
+        <v>7.811134265689077</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3492073244335643</v>
+        <v>0.2539091385158372</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09999837750319784</v>
+        <v>0.04651647950163351</v>
       </c>
       <c r="D25">
-        <v>1.271262852786975</v>
+        <v>0.6652393358796473</v>
       </c>
       <c r="E25">
-        <v>0.05786834921515904</v>
+        <v>0.08014275415760963</v>
       </c>
       <c r="F25">
-        <v>16.86032780436312</v>
+        <v>8.240914992244484</v>
       </c>
       <c r="G25">
-        <v>0.0005830213801665263</v>
+        <v>0.002594133311976418</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.99009341110639</v>
+        <v>7.157871378859795</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3492073244335643</v>
+        <v>0.2402659826008886</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_253/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04217225448167028</v>
+        <v>0.1078908465351134</v>
       </c>
       <c r="D2">
-        <v>0.6254007317907622</v>
+        <v>1.378810641251306</v>
       </c>
       <c r="E2">
-        <v>0.07971969209716079</v>
+        <v>0.06146681652700181</v>
       </c>
       <c r="F2">
-        <v>7.67766579295477</v>
+        <v>18.2635538926811</v>
       </c>
       <c r="G2">
-        <v>0.002619586479155167</v>
+        <v>0.0005633274906590854</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.702089430277567</v>
+        <v>15.14992382578617</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2309916117001336</v>
+        <v>0.3770221293343354</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03922197126684068</v>
+        <v>0.08697943616522252</v>
       </c>
       <c r="D3">
-        <v>0.5997560311011512</v>
+        <v>1.095560842055733</v>
       </c>
       <c r="E3">
-        <v>0.07954608488602943</v>
+        <v>0.05204409006371691</v>
       </c>
       <c r="F3">
-        <v>7.312664915336995</v>
+        <v>14.55213357058273</v>
       </c>
       <c r="G3">
-        <v>0.002637845245989812</v>
+        <v>0.0006170054732169019</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.407586212502139</v>
+        <v>12.08385513402007</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2251548882320122</v>
+        <v>0.3036985153309359</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03740463833784702</v>
+        <v>0.07641344105760339</v>
       </c>
       <c r="D4">
-        <v>0.584639479713104</v>
+        <v>0.9548586414886984</v>
       </c>
       <c r="E4">
-        <v>0.07949401871503703</v>
+        <v>0.04744780060524612</v>
       </c>
       <c r="F4">
-        <v>7.096297246036329</v>
+        <v>12.68993230770872</v>
       </c>
       <c r="G4">
-        <v>0.002649561795740255</v>
+        <v>0.0006461457950306421</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.233440295295793</v>
+        <v>10.54747372240726</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2217824092075489</v>
+        <v>0.2672292861380612</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03666219987602659</v>
+        <v>0.07244578812935032</v>
       </c>
       <c r="D5">
-        <v>0.5786322765800378</v>
+        <v>0.9025462032009273</v>
       </c>
       <c r="E5">
-        <v>0.07948633921431458</v>
+        <v>0.04575912579667119</v>
       </c>
       <c r="F5">
-        <v>7.010003513989318</v>
+        <v>11.99445277510722</v>
       </c>
       <c r="G5">
-        <v>0.002654464635297725</v>
+        <v>0.0006574995021027466</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.164096758339838</v>
+        <v>9.974057912825941</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2204598454046476</v>
+        <v>0.253672443264719</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03653879501806756</v>
+        <v>0.07180322958056706</v>
       </c>
       <c r="D6">
-        <v>0.5776438682993899</v>
+        <v>0.8941039926813801</v>
       </c>
       <c r="E6">
-        <v>0.07948587676149543</v>
+        <v>0.0454878020911611</v>
       </c>
       <c r="F6">
-        <v>6.995785942668817</v>
+        <v>11.8820562755667</v>
       </c>
       <c r="G6">
-        <v>0.002655286526139592</v>
+        <v>0.0006593611485271522</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.15267866553549</v>
+        <v>9.881408629594404</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2202433208500878</v>
+        <v>0.2514850143063967</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03739463359233497</v>
+        <v>0.07635876258029128</v>
       </c>
       <c r="D7">
-        <v>0.5845578522429378</v>
+        <v>0.9541356394514366</v>
       </c>
       <c r="E7">
-        <v>0.07949386055603647</v>
+        <v>0.0474243787839228</v>
       </c>
       <c r="F7">
-        <v>7.095125945105792</v>
+        <v>12.68033176645378</v>
       </c>
       <c r="G7">
-        <v>0.002649627396396769</v>
+        <v>0.0006463006481125842</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.232498609579125</v>
+        <v>10.53955671570517</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.22176436490588</v>
+        <v>0.2670418976134954</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0411559705254092</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D8">
-        <v>0.6164245101484482</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E8">
-        <v>0.07964840728961775</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F8">
-        <v>7.55016332966801</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G8">
-        <v>0.002625777846402963</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.599122840620254</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2289344036841214</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04850408655065053</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D9">
-        <v>0.6841645191993848</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E9">
-        <v>0.08039250942737297</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F9">
-        <v>8.507258773144088</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G9">
-        <v>0.002582968601257977</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7.373821485815768</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.244737444301208</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05391293723054957</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D10">
-        <v>0.7375099410671737</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E10">
-        <v>0.08122049725153246</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F10">
-        <v>9.254813788462059</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G10">
-        <v>0.002553855825611224</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.981023838710541</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2575078008063656</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05638207931409056</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D11">
-        <v>0.7626428374326224</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E11">
-        <v>0.0816611850510327</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F11">
-        <v>9.605674321016181</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G11">
-        <v>0.002541102731789278</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.266458780448204</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2635920434577343</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05731886261362718</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D12">
-        <v>0.772292150533417</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E12">
-        <v>0.08183752697452107</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F12">
-        <v>9.740187184479396</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G12">
-        <v>0.002536342583986113</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.375952612406877</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2659375074850487</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05711702194680868</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D13">
-        <v>0.7702080016613877</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E13">
-        <v>0.08179912348012053</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F13">
-        <v>9.711142455711638</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G13">
-        <v>0.002537364712521625</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.35230729949069</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2654304920336159</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05645911036125995</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D14">
-        <v>0.7634340014603822</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E14">
-        <v>0.08167550163496173</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F14">
-        <v>9.616707137113508</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G14">
-        <v>0.002540709732774094</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.275438251062553</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2637841629912145</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05605636765984912</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D15">
-        <v>0.7593021559006843</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E15">
-        <v>0.08160101989789581</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F15">
-        <v>9.559080589523489</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G15">
-        <v>0.002542767622052709</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.228539289177945</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2627812025925209</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05375179145433151</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D16">
-        <v>0.7358855031885128</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E16">
-        <v>0.08119300721992317</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F16">
-        <v>9.232109634592632</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G16">
-        <v>0.002554699024685285</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.962562223481711</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2571158785247718</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05234058832979827</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D17">
-        <v>0.7217471205208881</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E17">
-        <v>0.08095928151066545</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F17">
-        <v>9.034355760268795</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G17">
-        <v>0.002562143222850413</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.801810180466532</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2537121625092311</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05152968032246008</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D18">
-        <v>0.7136961140038238</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E18">
-        <v>0.08083085946050517</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F18">
-        <v>8.921622795282815</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G18">
-        <v>0.002566471176759677</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.710212177574363</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2517801903933616</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05125523879461014</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D19">
-        <v>0.7109838738057022</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E19">
-        <v>0.08078840279664234</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F19">
-        <v>8.883623910112476</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G19">
-        <v>0.00256794453114891</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.679344388810819</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2511304235253959</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05249072895466611</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D20">
-        <v>0.7232437373293976</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E20">
-        <v>0.08098353811776704</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F20">
-        <v>9.055301795545347</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G20">
-        <v>0.002561345998619842</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.818832693362594</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2540718144955036</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05665230244720476</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D21">
-        <v>0.7654200440828163</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E21">
-        <v>0.0817115534302566</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F21">
-        <v>9.644399505822776</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G21">
-        <v>0.002539725353292699</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.297977735093468</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2642665874597583</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05938273211293676</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D22">
-        <v>0.7937580853726445</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E22">
-        <v>0.0822426413287296</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F22">
-        <v>10.03907326760577</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G22">
-        <v>0.002525997533138059</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.619361651941745</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2711723072249299</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05792429713754643</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D23">
-        <v>0.778560172045843</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E23">
-        <v>0.08195404232722936</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F23">
-        <v>9.827510510781678</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G23">
-        <v>0.002533287959481602</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.447051655679559</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.26746369757916</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05242284913688877</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D24">
-        <v>0.7225668765433397</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E24">
-        <v>0.08097255319206553</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F24">
-        <v>9.045829115186393</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G24">
-        <v>0.00256170627373099</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.811134265689077</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2539091385158372</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04651647950163351</v>
+        <v>0.09999837750373075</v>
       </c>
       <c r="D25">
-        <v>0.6652393358796473</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E25">
-        <v>0.08014275415760963</v>
+        <v>0.05786834921521944</v>
       </c>
       <c r="F25">
-        <v>8.240914992244484</v>
+        <v>16.86032780436335</v>
       </c>
       <c r="G25">
-        <v>0.002594133311976418</v>
+        <v>0.0005830213802060143</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.157871378859795</v>
+        <v>13.99009341110641</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2402659826008886</v>
+        <v>0.349207324433678</v>
       </c>
       <c r="M25">
         <v>0</v>
